--- a/data/pca/factorExposure/factorExposure_2016-04-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01240394497713976</v>
+        <v>-0.01573432065884163</v>
       </c>
       <c r="C2">
-        <v>-0.05130315917993617</v>
+        <v>0.03838883189076666</v>
       </c>
       <c r="D2">
-        <v>-0.04050507342576053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0642063934243178</v>
+      </c>
+      <c r="E2">
+        <v>-0.09375538605405463</v>
+      </c>
+      <c r="F2">
+        <v>-0.08847115489060139</v>
+      </c>
+      <c r="G2">
+        <v>0.0229856667391945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04301692911781776</v>
+        <v>-0.02643742287016604</v>
       </c>
       <c r="C3">
-        <v>-0.1200857291568155</v>
+        <v>0.06617382646130009</v>
       </c>
       <c r="D3">
-        <v>-0.08606900329120443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0731222815624686</v>
+      </c>
+      <c r="E3">
+        <v>-0.06973845290137871</v>
+      </c>
+      <c r="F3">
+        <v>0.01980968814875562</v>
+      </c>
+      <c r="G3">
+        <v>0.04953716467138372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06253525993955125</v>
+        <v>-0.06020403475426275</v>
       </c>
       <c r="C4">
-        <v>-0.06338909198687898</v>
+        <v>0.06322207122451803</v>
       </c>
       <c r="D4">
-        <v>-0.02871081767887311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05749892134004696</v>
+      </c>
+      <c r="E4">
+        <v>-0.09400216393814423</v>
+      </c>
+      <c r="F4">
+        <v>-0.05127733416330051</v>
+      </c>
+      <c r="G4">
+        <v>0.07941915377336574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04004287379323556</v>
+        <v>-0.03717015800360012</v>
       </c>
       <c r="C6">
-        <v>-0.03651551087056555</v>
+        <v>0.02738764260045332</v>
       </c>
       <c r="D6">
-        <v>-0.03363174925750516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06419530988547345</v>
+      </c>
+      <c r="E6">
+        <v>-0.08854503824681612</v>
+      </c>
+      <c r="F6">
+        <v>-0.03768772037970614</v>
+      </c>
+      <c r="G6">
+        <v>0.0594487282347235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02688332324524332</v>
+        <v>-0.02129654174573423</v>
       </c>
       <c r="C7">
-        <v>-0.040659060309565</v>
+        <v>0.0366606965742521</v>
       </c>
       <c r="D7">
-        <v>0.00349673870839125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04056522434378904</v>
+      </c>
+      <c r="E7">
+        <v>-0.06848384829042137</v>
+      </c>
+      <c r="F7">
+        <v>-0.07741359785615611</v>
+      </c>
+      <c r="G7">
+        <v>0.09346596552222054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.008014594322978389</v>
+        <v>-0.007058793482525863</v>
       </c>
       <c r="C8">
-        <v>-0.03936550132862893</v>
+        <v>0.03407684173633149</v>
       </c>
       <c r="D8">
-        <v>-0.02572558500952868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0357743240136274</v>
+      </c>
+      <c r="E8">
+        <v>-0.05965160883795566</v>
+      </c>
+      <c r="F8">
+        <v>-0.02239069918987836</v>
+      </c>
+      <c r="G8">
+        <v>0.03619599703668282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03966490958484368</v>
+        <v>-0.04119832357759808</v>
       </c>
       <c r="C9">
-        <v>-0.04650907427082683</v>
+        <v>0.04997562444899112</v>
       </c>
       <c r="D9">
-        <v>-0.01354622257041041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04151066710800553</v>
+      </c>
+      <c r="E9">
+        <v>-0.07059144005679414</v>
+      </c>
+      <c r="F9">
+        <v>-0.06488011054559875</v>
+      </c>
+      <c r="G9">
+        <v>0.07441554344520183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07187285076941731</v>
+        <v>-0.0992406612601253</v>
       </c>
       <c r="C10">
-        <v>0.1942656304659583</v>
+        <v>-0.202961244888777</v>
       </c>
       <c r="D10">
-        <v>0.003829702549837286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01106298332113429</v>
+      </c>
+      <c r="E10">
+        <v>-0.02954918283570461</v>
+      </c>
+      <c r="F10">
+        <v>-0.02117867926611798</v>
+      </c>
+      <c r="G10">
+        <v>0.03721184214824855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04328943581070258</v>
+        <v>-0.03765444992290209</v>
       </c>
       <c r="C11">
-        <v>-0.05035902055990457</v>
+        <v>0.0473655391942654</v>
       </c>
       <c r="D11">
-        <v>-0.01301958442487429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03095889694524355</v>
+      </c>
+      <c r="E11">
+        <v>-0.02890030276892808</v>
+      </c>
+      <c r="F11">
+        <v>-0.04589083257762527</v>
+      </c>
+      <c r="G11">
+        <v>0.06483520291440985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04629678602221046</v>
+        <v>-0.04001977039484525</v>
       </c>
       <c r="C12">
-        <v>-0.04525301798442021</v>
+        <v>0.04546942574646162</v>
       </c>
       <c r="D12">
-        <v>-0.002531326748750484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02707902976603922</v>
+      </c>
+      <c r="E12">
+        <v>-0.03594689760058328</v>
+      </c>
+      <c r="F12">
+        <v>-0.04718277925451658</v>
+      </c>
+      <c r="G12">
+        <v>0.06172144581018502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0167857885954019</v>
+        <v>-0.01451075569980282</v>
       </c>
       <c r="C13">
-        <v>-0.05297427416199032</v>
+        <v>0.04186922907638777</v>
       </c>
       <c r="D13">
-        <v>-0.01212563940486617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04974000115978199</v>
+      </c>
+      <c r="E13">
+        <v>-0.1019834453086519</v>
+      </c>
+      <c r="F13">
+        <v>-0.06981681470781757</v>
+      </c>
+      <c r="G13">
+        <v>0.08994767267498872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01019804569795135</v>
+        <v>-0.006993368209629154</v>
       </c>
       <c r="C14">
-        <v>-0.03614879483372723</v>
+        <v>0.03082180705289892</v>
       </c>
       <c r="D14">
-        <v>0.005153646718326747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0264678270246817</v>
+      </c>
+      <c r="E14">
+        <v>-0.05276159609312437</v>
+      </c>
+      <c r="F14">
+        <v>-0.08625823754352797</v>
+      </c>
+      <c r="G14">
+        <v>0.07613501459776342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001095906704571484</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005485958500483339</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008460868277918974</v>
+      </c>
+      <c r="E15">
+        <v>-0.004379013605233077</v>
+      </c>
+      <c r="F15">
+        <v>-0.007403071844730255</v>
+      </c>
+      <c r="G15">
+        <v>0.006964313199237709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04118869320401548</v>
+        <v>-0.03593471245788022</v>
       </c>
       <c r="C16">
-        <v>-0.0476036145450303</v>
+        <v>0.04445808095316923</v>
       </c>
       <c r="D16">
-        <v>-0.004717096331663167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02605770860586371</v>
+      </c>
+      <c r="E16">
+        <v>-0.04267903598619797</v>
+      </c>
+      <c r="F16">
+        <v>-0.05640925544407693</v>
+      </c>
+      <c r="G16">
+        <v>0.05162837614359382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02777294338062444</v>
+        <v>-0.01924481896256192</v>
       </c>
       <c r="C19">
-        <v>-0.06122768818222204</v>
+        <v>0.04546026906490565</v>
       </c>
       <c r="D19">
-        <v>-0.09422656308545962</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09391354440959807</v>
+      </c>
+      <c r="E19">
+        <v>-0.1120772133527645</v>
+      </c>
+      <c r="F19">
+        <v>-0.06634353449640219</v>
+      </c>
+      <c r="G19">
+        <v>0.03505753176669869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02004702038731478</v>
+        <v>-0.01592552671717137</v>
       </c>
       <c r="C20">
-        <v>-0.04877022863653034</v>
+        <v>0.03973578635330097</v>
       </c>
       <c r="D20">
-        <v>-0.01129525341149129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03624792056123541</v>
+      </c>
+      <c r="E20">
+        <v>-0.07992914231717792</v>
+      </c>
+      <c r="F20">
+        <v>-0.06206386181890807</v>
+      </c>
+      <c r="G20">
+        <v>0.06063974526757464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0137519298163139</v>
+        <v>-0.01243744660932803</v>
       </c>
       <c r="C21">
-        <v>-0.05393425815423663</v>
+        <v>0.04363805432267946</v>
       </c>
       <c r="D21">
-        <v>-0.03181008545843461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05769694234924136</v>
+      </c>
+      <c r="E21">
+        <v>-0.1291371719554749</v>
+      </c>
+      <c r="F21">
+        <v>-0.1002240172525055</v>
+      </c>
+      <c r="G21">
+        <v>0.08669948308105307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.002319796151589721</v>
+        <v>-0.004342416219379272</v>
       </c>
       <c r="C22">
-        <v>-0.00111800921782965</v>
+        <v>0.02896002560301042</v>
       </c>
       <c r="D22">
-        <v>-0.008316588400408106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05133131071833958</v>
+      </c>
+      <c r="E22">
+        <v>-0.05696062919170169</v>
+      </c>
+      <c r="F22">
+        <v>0.01507523875129456</v>
+      </c>
+      <c r="G22">
+        <v>0.06272568357316279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.002325787552292573</v>
+        <v>-0.004447576520458624</v>
       </c>
       <c r="C23">
-        <v>-0.001138030679555425</v>
+        <v>0.02899146314855797</v>
       </c>
       <c r="D23">
-        <v>-0.008306568657919285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.050664967016746</v>
+      </c>
+      <c r="E23">
+        <v>-0.05726422238247106</v>
+      </c>
+      <c r="F23">
+        <v>0.01520669408353402</v>
+      </c>
+      <c r="G23">
+        <v>0.06284578199315141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03807314115765323</v>
+        <v>-0.0366534048587533</v>
       </c>
       <c r="C24">
-        <v>-0.04944593729271118</v>
+        <v>0.05215445730931972</v>
       </c>
       <c r="D24">
-        <v>-0.007532047694339719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02578222280633361</v>
+      </c>
+      <c r="E24">
+        <v>-0.0431779970190134</v>
+      </c>
+      <c r="F24">
+        <v>-0.0602995541326146</v>
+      </c>
+      <c r="G24">
+        <v>0.06358331532420219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04964428055198859</v>
+        <v>-0.04439689759461832</v>
       </c>
       <c r="C25">
-        <v>-0.05914166666253106</v>
+        <v>0.0554011430720263</v>
       </c>
       <c r="D25">
-        <v>0.004038065025304486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02306869252210331</v>
+      </c>
+      <c r="E25">
+        <v>-0.03604642815221896</v>
+      </c>
+      <c r="F25">
+        <v>-0.05063776977549934</v>
+      </c>
+      <c r="G25">
+        <v>0.07576049084250212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0182257787533115</v>
+        <v>-0.01700976025164344</v>
       </c>
       <c r="C26">
-        <v>-0.01734990265889732</v>
+        <v>0.01653839859374769</v>
       </c>
       <c r="D26">
-        <v>-0.003809306613199288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02489899687303222</v>
+      </c>
+      <c r="E26">
+        <v>-0.0500453050064181</v>
+      </c>
+      <c r="F26">
+        <v>-0.06576750945085684</v>
+      </c>
+      <c r="G26">
+        <v>0.04642884409269617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08729209979952883</v>
+        <v>-0.1358473816424151</v>
       </c>
       <c r="C28">
-        <v>0.2537437923230496</v>
+        <v>-0.2578168827597284</v>
       </c>
       <c r="D28">
-        <v>0.006790555195676284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0270657760597888</v>
+      </c>
+      <c r="E28">
+        <v>-0.05213431801337658</v>
+      </c>
+      <c r="F28">
+        <v>-0.03938256085429293</v>
+      </c>
+      <c r="G28">
+        <v>0.05484903875944414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008168660254564043</v>
+        <v>-0.007346825223638485</v>
       </c>
       <c r="C29">
-        <v>-0.03148459491376755</v>
+        <v>0.02852640729377097</v>
       </c>
       <c r="D29">
-        <v>0.01119912402935904</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01811066888022822</v>
+      </c>
+      <c r="E29">
+        <v>-0.05258281752723384</v>
+      </c>
+      <c r="F29">
+        <v>-0.07709354395770317</v>
+      </c>
+      <c r="G29">
+        <v>0.081274468501195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04845789188777161</v>
+        <v>-0.04522025390301741</v>
       </c>
       <c r="C30">
-        <v>-0.04934369799706626</v>
+        <v>0.05682127862426434</v>
       </c>
       <c r="D30">
-        <v>-0.07916617281377467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1048686930118026</v>
+      </c>
+      <c r="E30">
+        <v>-0.07751535259498711</v>
+      </c>
+      <c r="F30">
+        <v>-0.07043695083660416</v>
+      </c>
+      <c r="G30">
+        <v>0.05976551614582559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06199842394259482</v>
+        <v>-0.05992003711785904</v>
       </c>
       <c r="C31">
-        <v>-0.045766869980241</v>
+        <v>0.06142471468755577</v>
       </c>
       <c r="D31">
-        <v>0.04481033958099574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01728460169702409</v>
+      </c>
+      <c r="E31">
+        <v>-0.07302562075675269</v>
+      </c>
+      <c r="F31">
+        <v>-0.03140108624914297</v>
+      </c>
+      <c r="G31">
+        <v>0.07705820314568908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003448489791060693</v>
+        <v>-0.008914647693130473</v>
       </c>
       <c r="C32">
-        <v>-0.04255621511073137</v>
+        <v>0.0356060231628204</v>
       </c>
       <c r="D32">
-        <v>-0.06194544779034384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05609245439290041</v>
+      </c>
+      <c r="E32">
+        <v>-0.05577592282313239</v>
+      </c>
+      <c r="F32">
+        <v>-0.07024883407230867</v>
+      </c>
+      <c r="G32">
+        <v>0.06076073202304063</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03657074426770369</v>
+        <v>-0.02958658025482558</v>
       </c>
       <c r="C33">
-        <v>-0.05529286996336944</v>
+        <v>0.05143491864289506</v>
       </c>
       <c r="D33">
-        <v>-0.03991416051841225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07271859408037068</v>
+      </c>
+      <c r="E33">
+        <v>-0.08941262639769591</v>
+      </c>
+      <c r="F33">
+        <v>-0.07775590013202203</v>
+      </c>
+      <c r="G33">
+        <v>0.09224176352316642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04630050725021105</v>
+        <v>-0.04148378994223716</v>
       </c>
       <c r="C34">
-        <v>-0.06499577907595801</v>
+        <v>0.06297926884832832</v>
       </c>
       <c r="D34">
-        <v>-0.01909848088267874</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03729444647081879</v>
+      </c>
+      <c r="E34">
+        <v>-0.0184742195447511</v>
+      </c>
+      <c r="F34">
+        <v>-0.05908976136834725</v>
+      </c>
+      <c r="G34">
+        <v>0.06553519975001423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01793818223857882</v>
+        <v>-0.01542055927434143</v>
       </c>
       <c r="C36">
-        <v>-0.01528989386031515</v>
+        <v>0.01308134834259196</v>
       </c>
       <c r="D36">
-        <v>0.001863368446943362</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02502379287361488</v>
+      </c>
+      <c r="E36">
+        <v>-0.06150492030704498</v>
+      </c>
+      <c r="F36">
+        <v>-0.0570216418434314</v>
+      </c>
+      <c r="G36">
+        <v>0.06187235238342276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03075063565585994</v>
+        <v>-0.02432998095578971</v>
       </c>
       <c r="C38">
-        <v>-0.0323025414994246</v>
+        <v>0.02445121652387431</v>
       </c>
       <c r="D38">
-        <v>0.01101740052094735</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02131397379318574</v>
+      </c>
+      <c r="E38">
+        <v>-0.05118913035353871</v>
+      </c>
+      <c r="F38">
+        <v>-0.04594115982921909</v>
+      </c>
+      <c r="G38">
+        <v>0.04197141532973352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04915780017404441</v>
+        <v>-0.04249300156843025</v>
       </c>
       <c r="C39">
-        <v>-0.06111585549292467</v>
+        <v>0.06239259325105822</v>
       </c>
       <c r="D39">
-        <v>-0.02044074505030797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05141446446536555</v>
+      </c>
+      <c r="E39">
+        <v>-0.04952457993495066</v>
+      </c>
+      <c r="F39">
+        <v>-0.07919485232379635</v>
+      </c>
+      <c r="G39">
+        <v>0.05601736052697916</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01287993931289492</v>
+        <v>-0.01514770780717594</v>
       </c>
       <c r="C40">
-        <v>-0.0538958693083065</v>
+        <v>0.03797579217670402</v>
       </c>
       <c r="D40">
-        <v>-0.01712193443305915</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03223046640719756</v>
+      </c>
+      <c r="E40">
+        <v>-0.08883785821025732</v>
+      </c>
+      <c r="F40">
+        <v>-0.04500354636226964</v>
+      </c>
+      <c r="G40">
+        <v>0.09663486994476915</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02416820979820971</v>
+        <v>-0.02020123915307729</v>
       </c>
       <c r="C41">
-        <v>-0.01225691603821824</v>
+        <v>0.009340142240644157</v>
       </c>
       <c r="D41">
-        <v>-0.0008579203883861225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01732651178946442</v>
+      </c>
+      <c r="E41">
+        <v>-0.06233189396479335</v>
+      </c>
+      <c r="F41">
+        <v>-0.0501564170601234</v>
+      </c>
+      <c r="G41">
+        <v>0.04993613265939695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04562768914359747</v>
+        <v>-0.03222159199451355</v>
       </c>
       <c r="C43">
-        <v>-0.03349924431036984</v>
+        <v>0.02508942488683633</v>
       </c>
       <c r="D43">
-        <v>-0.0208140639496768</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04515931688629283</v>
+      </c>
+      <c r="E43">
+        <v>-0.07789562860553098</v>
+      </c>
+      <c r="F43">
+        <v>-0.04677083310160191</v>
+      </c>
+      <c r="G43">
+        <v>0.07561100987056457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01762641753900207</v>
+        <v>-0.01914329392995855</v>
       </c>
       <c r="C44">
-        <v>-0.07027623620038537</v>
+        <v>0.04784179646198114</v>
       </c>
       <c r="D44">
-        <v>-0.009798317958946135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0343198199942289</v>
+      </c>
+      <c r="E44">
+        <v>-0.08755484189414788</v>
+      </c>
+      <c r="F44">
+        <v>-0.06821065001073935</v>
+      </c>
+      <c r="G44">
+        <v>0.0460492086007732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01188645858490442</v>
+        <v>-0.01219476076989135</v>
       </c>
       <c r="C46">
-        <v>-0.02699570755620308</v>
+        <v>0.02894270019531536</v>
       </c>
       <c r="D46">
-        <v>0.01338149246799277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01448985974433145</v>
+      </c>
+      <c r="E46">
+        <v>-0.06269628201892559</v>
+      </c>
+      <c r="F46">
+        <v>-0.08854699156943861</v>
+      </c>
+      <c r="G46">
+        <v>0.07905127562609583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09172431646044238</v>
+        <v>-0.09377877729000558</v>
       </c>
       <c r="C47">
-        <v>-0.06614032829937982</v>
+        <v>0.07817407685708472</v>
       </c>
       <c r="D47">
-        <v>0.04442659875562553</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02464148305896596</v>
+      </c>
+      <c r="E47">
+        <v>-0.06507416930402739</v>
+      </c>
+      <c r="F47">
+        <v>-0.03163646211746367</v>
+      </c>
+      <c r="G47">
+        <v>0.07508764768965048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02081203340247949</v>
+        <v>-0.01894246348933178</v>
       </c>
       <c r="C48">
-        <v>-0.01319509392927861</v>
+        <v>0.01598234133986153</v>
       </c>
       <c r="D48">
-        <v>0.0156088681448361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01270193512221954</v>
+      </c>
+      <c r="E48">
+        <v>-0.07240880227062671</v>
+      </c>
+      <c r="F48">
+        <v>-0.07170467124536908</v>
+      </c>
+      <c r="G48">
+        <v>0.06592508301759567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08511275773001754</v>
+        <v>-0.07272580400131419</v>
       </c>
       <c r="C50">
-        <v>-0.08065177356068269</v>
+        <v>0.07410061764312048</v>
       </c>
       <c r="D50">
-        <v>0.04361124789467094</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.008588453683188882</v>
+      </c>
+      <c r="E50">
+        <v>-0.07971257176746471</v>
+      </c>
+      <c r="F50">
+        <v>-0.005668056614027708</v>
+      </c>
+      <c r="G50">
+        <v>0.09066796475456035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01845393214357588</v>
+        <v>-0.01249111322697124</v>
       </c>
       <c r="C51">
-        <v>-0.04892241045627684</v>
+        <v>0.03136532795202216</v>
       </c>
       <c r="D51">
-        <v>-0.04196953112553371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05661415204056951</v>
+      </c>
+      <c r="E51">
+        <v>-0.05069981052909366</v>
+      </c>
+      <c r="F51">
+        <v>-0.07459380100061154</v>
+      </c>
+      <c r="G51">
+        <v>0.05419971927140801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08502988217712101</v>
+        <v>-0.09826344177141107</v>
       </c>
       <c r="C53">
-        <v>-0.0756228696497398</v>
+        <v>0.08377853921167962</v>
       </c>
       <c r="D53">
-        <v>0.06588589366484876</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06219390448421395</v>
+      </c>
+      <c r="E53">
+        <v>-0.06725905234050548</v>
+      </c>
+      <c r="F53">
+        <v>-0.03324667811305494</v>
+      </c>
+      <c r="G53">
+        <v>0.06667784950267644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03790703301743013</v>
+        <v>-0.03102920271784325</v>
       </c>
       <c r="C54">
-        <v>-0.03410571382198787</v>
+        <v>0.0315323003467901</v>
       </c>
       <c r="D54">
-        <v>0.002729434722818152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02613127250859414</v>
+      </c>
+      <c r="E54">
+        <v>-0.05854688057844443</v>
+      </c>
+      <c r="F54">
+        <v>-0.0790494354034619</v>
+      </c>
+      <c r="G54">
+        <v>0.08025303587592818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08140880404837036</v>
+        <v>-0.09139838582775459</v>
       </c>
       <c r="C55">
-        <v>-0.05112271949315778</v>
+        <v>0.06612944546405268</v>
       </c>
       <c r="D55">
-        <v>0.07081270404367068</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06122810674151372</v>
+      </c>
+      <c r="E55">
+        <v>-0.04319650013406401</v>
+      </c>
+      <c r="F55">
+        <v>-0.009472947557945227</v>
+      </c>
+      <c r="G55">
+        <v>0.05333558770116177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1539289394455979</v>
+        <v>-0.1560757521004502</v>
       </c>
       <c r="C56">
-        <v>-0.07971225783130545</v>
+        <v>0.09895987529171728</v>
       </c>
       <c r="D56">
-        <v>0.0611295863832677</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05572031735094124</v>
+      </c>
+      <c r="E56">
+        <v>-0.04027819973447445</v>
+      </c>
+      <c r="F56">
+        <v>0.01227528276037859</v>
+      </c>
+      <c r="G56">
+        <v>0.02216803704906997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05465394118473246</v>
+        <v>-0.03546592964436248</v>
       </c>
       <c r="C58">
-        <v>-0.001380549744119787</v>
+        <v>0.01551823861784583</v>
       </c>
       <c r="D58">
-        <v>-0.5688173092137134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3920100554630012</v>
+      </c>
+      <c r="E58">
+        <v>-0.6137559883747591</v>
+      </c>
+      <c r="F58">
+        <v>0.4474657572558557</v>
+      </c>
+      <c r="G58">
+        <v>-0.4303943369531622</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1232850794932515</v>
+        <v>-0.1395374768495589</v>
       </c>
       <c r="C59">
-        <v>0.2057051033165756</v>
+        <v>-0.1926701934991223</v>
       </c>
       <c r="D59">
-        <v>-0.02615149701804717</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03162572928019248</v>
+      </c>
+      <c r="E59">
+        <v>-0.02574151236755474</v>
+      </c>
+      <c r="F59">
+        <v>-0.03164262070727278</v>
+      </c>
+      <c r="G59">
+        <v>-0.007343587615977446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3033875493032923</v>
+        <v>-0.2728615676080777</v>
       </c>
       <c r="C60">
-        <v>-0.1141115765779867</v>
+        <v>0.1072082224373383</v>
       </c>
       <c r="D60">
-        <v>-0.1890596460128671</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2510267377000691</v>
+      </c>
+      <c r="E60">
+        <v>0.2439632447309576</v>
+      </c>
+      <c r="F60">
+        <v>0.08752986087596165</v>
+      </c>
+      <c r="G60">
+        <v>0.04786164234257616</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04801417866028927</v>
+        <v>-0.04394731327730891</v>
       </c>
       <c r="C61">
-        <v>-0.05961173391397866</v>
+        <v>0.05788974250782393</v>
       </c>
       <c r="D61">
-        <v>-0.0141191525883629</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04247861845348125</v>
+      </c>
+      <c r="E61">
+        <v>-0.0514755288953649</v>
+      </c>
+      <c r="F61">
+        <v>-0.06345497992463081</v>
+      </c>
+      <c r="G61">
+        <v>0.07059327528330499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01851245451718474</v>
+        <v>-0.01762620565612127</v>
       </c>
       <c r="C63">
-        <v>-0.03350384650179875</v>
+        <v>0.03071285045836588</v>
       </c>
       <c r="D63">
-        <v>0.01799257533388555</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01701879812829229</v>
+      </c>
+      <c r="E63">
+        <v>-0.06271023724846481</v>
+      </c>
+      <c r="F63">
+        <v>-0.04793952985430466</v>
+      </c>
+      <c r="G63">
+        <v>0.07157217696459119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0530490708800143</v>
+        <v>-0.05817343575469868</v>
       </c>
       <c r="C64">
-        <v>-0.04852480118065471</v>
+        <v>0.05841976425207203</v>
       </c>
       <c r="D64">
-        <v>-0.01058929993273037</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009276860369547861</v>
+      </c>
+      <c r="E64">
+        <v>-0.04307392138800902</v>
+      </c>
+      <c r="F64">
+        <v>-0.05840055476172568</v>
+      </c>
+      <c r="G64">
+        <v>0.04899391871769463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08086879304305236</v>
+        <v>-0.0655788482505209</v>
       </c>
       <c r="C65">
-        <v>-0.02282168045775702</v>
+        <v>0.02507832005549663</v>
       </c>
       <c r="D65">
-        <v>-0.0583784221233041</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08833877633575017</v>
+      </c>
+      <c r="E65">
+        <v>-0.05210674275868595</v>
+      </c>
+      <c r="F65">
+        <v>-0.008027034413294786</v>
+      </c>
+      <c r="G65">
+        <v>0.02313638351314898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06376248619897365</v>
+        <v>-0.05456841038228285</v>
       </c>
       <c r="C66">
-        <v>-0.0833103272363364</v>
+        <v>0.07956493695612418</v>
       </c>
       <c r="D66">
-        <v>-0.04089105705778147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07696136152578346</v>
+      </c>
+      <c r="E66">
+        <v>-0.06214442113769578</v>
+      </c>
+      <c r="F66">
+        <v>-0.0708049157749623</v>
+      </c>
+      <c r="G66">
+        <v>0.07065158219468769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05127049361448806</v>
+        <v>-0.04465457261987814</v>
       </c>
       <c r="C67">
-        <v>-0.03239522639824526</v>
+        <v>0.02893769071221803</v>
       </c>
       <c r="D67">
-        <v>0.02060027152079019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003904241731817186</v>
+      </c>
+      <c r="E67">
+        <v>-0.0286574308661263</v>
+      </c>
+      <c r="F67">
+        <v>-0.0316337078467808</v>
+      </c>
+      <c r="G67">
+        <v>0.03367777882429888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1212960701615967</v>
+        <v>-0.1466588443421773</v>
       </c>
       <c r="C68">
-        <v>0.2825387453557585</v>
+        <v>-0.2454741192872365</v>
       </c>
       <c r="D68">
-        <v>0.01059370300083214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01504047852311107</v>
+      </c>
+      <c r="E68">
+        <v>-0.03785921025784733</v>
+      </c>
+      <c r="F68">
+        <v>-0.01191754971282751</v>
+      </c>
+      <c r="G68">
+        <v>0.0269562600487256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09459441428123269</v>
+        <v>-0.08947210134589084</v>
       </c>
       <c r="C69">
-        <v>-0.07112237662480615</v>
+        <v>0.09004019659640905</v>
       </c>
       <c r="D69">
-        <v>0.05072058080076536</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01469023285900818</v>
+      </c>
+      <c r="E69">
+        <v>-0.05751225742309445</v>
+      </c>
+      <c r="F69">
+        <v>-0.06093924980755212</v>
+      </c>
+      <c r="G69">
+        <v>0.06852054725809846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1138053972521066</v>
+        <v>-0.1413951128153931</v>
       </c>
       <c r="C71">
-        <v>0.2606178223673753</v>
+        <v>-0.2444755789707703</v>
       </c>
       <c r="D71">
-        <v>-0.006257847654592745</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003391398919356249</v>
+      </c>
+      <c r="E71">
+        <v>-0.05213051130195229</v>
+      </c>
+      <c r="F71">
+        <v>-0.01624738246877675</v>
+      </c>
+      <c r="G71">
+        <v>0.06219858242689223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1006364978004662</v>
+        <v>-0.1055250218957424</v>
       </c>
       <c r="C72">
-        <v>-0.04113690951411687</v>
+        <v>0.04854901443310997</v>
       </c>
       <c r="D72">
-        <v>-0.000244958036421601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03638830742477758</v>
+      </c>
+      <c r="E72">
+        <v>-0.01670099391581651</v>
+      </c>
+      <c r="F72">
+        <v>-0.03612355726274596</v>
+      </c>
+      <c r="G72">
+        <v>0.09320645167821776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3888172616095409</v>
+        <v>-0.3279269262116155</v>
       </c>
       <c r="C73">
-        <v>-0.04733134147462228</v>
+        <v>0.06902594241030617</v>
       </c>
       <c r="D73">
-        <v>-0.458138713021737</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5027460935770526</v>
+      </c>
+      <c r="E73">
+        <v>0.4640105440845086</v>
+      </c>
+      <c r="F73">
+        <v>0.2398063305193227</v>
+      </c>
+      <c r="G73">
+        <v>0.04164020576660764</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1080529800971147</v>
+        <v>-0.1126325121822807</v>
       </c>
       <c r="C74">
-        <v>-0.09298277563924792</v>
+        <v>0.09220364282783776</v>
       </c>
       <c r="D74">
-        <v>0.04558668559804457</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04695570420150442</v>
+      </c>
+      <c r="E74">
+        <v>-0.0608272449762393</v>
+      </c>
+      <c r="F74">
+        <v>0.003740680756966759</v>
+      </c>
+      <c r="G74">
+        <v>0.04726154455348739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2565317486229892</v>
+        <v>-0.2600994061068521</v>
       </c>
       <c r="C75">
-        <v>-0.08473988742158306</v>
+        <v>0.1192027317580414</v>
       </c>
       <c r="D75">
-        <v>0.1431940412477215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1529548870284637</v>
+      </c>
+      <c r="E75">
+        <v>-0.03527571010402522</v>
+      </c>
+      <c r="F75">
+        <v>0.05980715707331967</v>
+      </c>
+      <c r="G75">
+        <v>-0.05093811954170008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1154842433942131</v>
+        <v>-0.129259844080592</v>
       </c>
       <c r="C76">
-        <v>-0.07638312501325974</v>
+        <v>0.08868066663352496</v>
       </c>
       <c r="D76">
-        <v>0.07580287693339426</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08119820415798465</v>
+      </c>
+      <c r="E76">
+        <v>-0.07689935752135128</v>
+      </c>
+      <c r="F76">
+        <v>-0.02075123906594899</v>
+      </c>
+      <c r="G76">
+        <v>0.03456302012460343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08599089887867715</v>
+        <v>-0.069927817209522</v>
       </c>
       <c r="C77">
-        <v>-0.04109561925869373</v>
+        <v>0.05777337605925163</v>
       </c>
       <c r="D77">
-        <v>-0.05370636911479484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05951003347260334</v>
+      </c>
+      <c r="E77">
+        <v>-0.09166975922210355</v>
+      </c>
+      <c r="F77">
+        <v>-0.1748462245677248</v>
+      </c>
+      <c r="G77">
+        <v>-0.1197728978146873</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05074549948209894</v>
+        <v>-0.0487510993367393</v>
       </c>
       <c r="C78">
-        <v>-0.03728434795585264</v>
+        <v>0.05127172933025086</v>
       </c>
       <c r="D78">
-        <v>-0.02940576525336836</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06400565974829972</v>
+      </c>
+      <c r="E78">
+        <v>-0.05922970374393197</v>
+      </c>
+      <c r="F78">
+        <v>-0.06516322122860804</v>
+      </c>
+      <c r="G78">
+        <v>0.05978259777360578</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0001997133751557055</v>
+        <v>-0.03416677974435635</v>
       </c>
       <c r="C79">
-        <v>-0.0001667397697142277</v>
+        <v>0.04720350838269755</v>
       </c>
       <c r="D79">
-        <v>-0.003121466634038492</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08252010521334129</v>
+      </c>
+      <c r="E79">
+        <v>-0.06867698732601393</v>
+      </c>
+      <c r="F79">
+        <v>0.02077383341631582</v>
+      </c>
+      <c r="G79">
+        <v>0.032369537483861</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03992131078971567</v>
+        <v>-0.03059651273280293</v>
       </c>
       <c r="C80">
-        <v>-0.05047111414253012</v>
+        <v>0.05098167065481438</v>
       </c>
       <c r="D80">
-        <v>-0.02935163060489092</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04004147119432355</v>
+      </c>
+      <c r="E80">
+        <v>-0.01454001735960458</v>
+      </c>
+      <c r="F80">
+        <v>-0.05611644310260512</v>
+      </c>
+      <c r="G80">
+        <v>-0.004372481364675685</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1434203791216601</v>
+        <v>-0.1426536461027274</v>
       </c>
       <c r="C81">
-        <v>-0.06903545309142234</v>
+        <v>0.08980934225068349</v>
       </c>
       <c r="D81">
-        <v>0.1094004220791824</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1236931775364427</v>
+      </c>
+      <c r="E81">
+        <v>-0.07265519581055639</v>
+      </c>
+      <c r="F81">
+        <v>0.02424619563965558</v>
+      </c>
+      <c r="G81">
+        <v>-0.009556283437356211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1995228801398568</v>
+        <v>-0.2313510931537982</v>
       </c>
       <c r="C82">
-        <v>-0.0867787331764132</v>
+        <v>0.1509325235120328</v>
       </c>
       <c r="D82">
-        <v>0.2018065891146549</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2507123488614384</v>
+      </c>
+      <c r="E82">
+        <v>0.04657703796321839</v>
+      </c>
+      <c r="F82">
+        <v>-0.03533765659376172</v>
+      </c>
+      <c r="G82">
+        <v>0.04938409598790916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04393627356926005</v>
+        <v>-0.02983427841682834</v>
       </c>
       <c r="C83">
-        <v>-0.03008965614143431</v>
+        <v>0.04457953640009107</v>
       </c>
       <c r="D83">
-        <v>-0.03691955885485431</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03176270315696485</v>
+      </c>
+      <c r="E83">
+        <v>-0.02215735909373576</v>
+      </c>
+      <c r="F83">
+        <v>-0.02868770386542563</v>
+      </c>
+      <c r="G83">
+        <v>-0.0008814431694204513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002271781243986254</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0006143680465028118</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0005027999511282696</v>
+      </c>
+      <c r="E84">
+        <v>-0.003103035679438733</v>
+      </c>
+      <c r="F84">
+        <v>0.00120310914421714</v>
+      </c>
+      <c r="G84">
+        <v>0.0009005129400604272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2197668696388599</v>
+        <v>-0.2030060990210706</v>
       </c>
       <c r="C85">
-        <v>-0.08984973905688662</v>
+        <v>0.1082361988382836</v>
       </c>
       <c r="D85">
-        <v>0.1652941617816062</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.130441853471928</v>
+      </c>
+      <c r="E85">
+        <v>0.002299301220111951</v>
+      </c>
+      <c r="F85">
+        <v>0.1035430275607195</v>
+      </c>
+      <c r="G85">
+        <v>0.0120386796746964</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01147866841713961</v>
+        <v>-0.01436548496509032</v>
       </c>
       <c r="C86">
-        <v>-0.02762030912341581</v>
+        <v>0.01811763617573151</v>
       </c>
       <c r="D86">
-        <v>-0.04509921123595496</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06465729285949771</v>
+      </c>
+      <c r="E86">
+        <v>-0.07541768238365032</v>
+      </c>
+      <c r="F86">
+        <v>-0.09076670238628186</v>
+      </c>
+      <c r="G86">
+        <v>0.06467356579391598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03016128444189375</v>
+        <v>-0.02989576528708442</v>
       </c>
       <c r="C87">
-        <v>-0.002450377246088563</v>
+        <v>0.01265902966725805</v>
       </c>
       <c r="D87">
-        <v>-0.08609327384504592</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0868599831996316</v>
+      </c>
+      <c r="E87">
+        <v>-0.1227927552472473</v>
+      </c>
+      <c r="F87">
+        <v>-0.07878887145686359</v>
+      </c>
+      <c r="G87">
+        <v>-0.005384058031030379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1100112344929986</v>
+        <v>-0.09390112849137328</v>
       </c>
       <c r="C88">
-        <v>-0.07905183663668595</v>
+        <v>0.06498371612990235</v>
       </c>
       <c r="D88">
-        <v>0.02084803460156504</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01125224648054373</v>
+      </c>
+      <c r="E88">
+        <v>-0.05225806118398543</v>
+      </c>
+      <c r="F88">
+        <v>-0.05340935970090401</v>
+      </c>
+      <c r="G88">
+        <v>0.0306340876013907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1730355697777588</v>
+        <v>-0.2112818807310813</v>
       </c>
       <c r="C89">
-        <v>0.3827341967656926</v>
+        <v>-0.3850549476445259</v>
       </c>
       <c r="D89">
-        <v>0.02713335499060941</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01378421378444322</v>
+      </c>
+      <c r="E89">
+        <v>-0.06865465521818535</v>
+      </c>
+      <c r="F89">
+        <v>-0.08909081382154836</v>
+      </c>
+      <c r="G89">
+        <v>-0.007673543634749641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1665218010811855</v>
+        <v>-0.1928340199182407</v>
       </c>
       <c r="C90">
-        <v>0.3375740412626741</v>
+        <v>-0.314011270819957</v>
       </c>
       <c r="D90">
-        <v>0.03936322625580747</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01956887872047926</v>
+      </c>
+      <c r="E90">
+        <v>-0.05314661825336117</v>
+      </c>
+      <c r="F90">
+        <v>-0.03211923503864293</v>
+      </c>
+      <c r="G90">
+        <v>0.01464428766901108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1890303412420502</v>
+        <v>-0.1870084798286006</v>
       </c>
       <c r="C91">
-        <v>-0.1209345847122157</v>
+        <v>0.1380906374372649</v>
       </c>
       <c r="D91">
-        <v>0.1332034741319729</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1309189805128475</v>
+      </c>
+      <c r="E91">
+        <v>-0.05327275863630752</v>
+      </c>
+      <c r="F91">
+        <v>0.01418702216651919</v>
+      </c>
+      <c r="G91">
+        <v>-0.004623968959472235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1576803034744882</v>
+        <v>-0.1778552409740252</v>
       </c>
       <c r="C92">
-        <v>0.2962015132221382</v>
+        <v>-0.2991093388875734</v>
       </c>
       <c r="D92">
-        <v>0.02173267758288303</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01358966972741839</v>
+      </c>
+      <c r="E92">
+        <v>-0.06161601382305724</v>
+      </c>
+      <c r="F92">
+        <v>-0.05753505130646858</v>
+      </c>
+      <c r="G92">
+        <v>0.02352636752364705</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1853654587218391</v>
+        <v>-0.2122607005592953</v>
       </c>
       <c r="C93">
-        <v>0.3402619295467672</v>
+        <v>-0.3216615959999103</v>
       </c>
       <c r="D93">
-        <v>0.04502635666242347</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02069365751410943</v>
+      </c>
+      <c r="E93">
+        <v>-0.04038212100707914</v>
+      </c>
+      <c r="F93">
+        <v>-0.007041955604760152</v>
+      </c>
+      <c r="G93">
+        <v>0.03963429842158954</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3472786152432956</v>
+        <v>-0.3469287813461207</v>
       </c>
       <c r="C94">
-        <v>-0.1235296225946687</v>
+        <v>0.170688476228555</v>
       </c>
       <c r="D94">
-        <v>0.3783490561818153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3999040040594162</v>
+      </c>
+      <c r="E94">
+        <v>0.0009911792852792876</v>
+      </c>
+      <c r="F94">
+        <v>0.1631789474548007</v>
+      </c>
+      <c r="G94">
+        <v>-0.3862810121680985</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1252517603800146</v>
+        <v>-0.09130280424609344</v>
       </c>
       <c r="C95">
-        <v>-0.04360127078207978</v>
+        <v>0.0536051722089366</v>
       </c>
       <c r="D95">
-        <v>-0.2084293302801961</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.195558081513254</v>
+      </c>
+      <c r="E95">
+        <v>0.1396640683733293</v>
+      </c>
+      <c r="F95">
+        <v>-0.6606165712287971</v>
+      </c>
+      <c r="G95">
+        <v>-0.6190025288546825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.191210479215832</v>
+        <v>-0.1861402457755925</v>
       </c>
       <c r="C98">
-        <v>-0.03281795212527078</v>
+        <v>0.05046771749150482</v>
       </c>
       <c r="D98">
-        <v>-0.1679968164448834</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2032868079825457</v>
+      </c>
+      <c r="E98">
+        <v>0.1447825335086455</v>
+      </c>
+      <c r="F98">
+        <v>0.08112298698334934</v>
+      </c>
+      <c r="G98">
+        <v>0.08330643803752368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007951447963685026</v>
+        <v>-0.007349936686583989</v>
       </c>
       <c r="C101">
-        <v>-0.03151205703435878</v>
+        <v>0.0280691548468614</v>
       </c>
       <c r="D101">
-        <v>0.010961770949175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01801874506347514</v>
+      </c>
+      <c r="E101">
+        <v>-0.05323188491575495</v>
+      </c>
+      <c r="F101">
+        <v>-0.0778201596470231</v>
+      </c>
+      <c r="G101">
+        <v>0.08104584718598548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1222923493027658</v>
+        <v>-0.126415937157215</v>
       </c>
       <c r="C102">
-        <v>-0.06388252598099112</v>
+        <v>0.09643441033880144</v>
       </c>
       <c r="D102">
-        <v>0.04831138871661034</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05959372835894949</v>
+      </c>
+      <c r="E102">
+        <v>0.01315653784212986</v>
+      </c>
+      <c r="F102">
+        <v>-0.01913636490880069</v>
+      </c>
+      <c r="G102">
+        <v>-0.01066588261442352</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
